--- a/Excel/DiskConfig.xlsx
+++ b/Excel/DiskConfig.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="15500" windowHeight="10400"/>
+    <workbookView xWindow="3195" yWindow="465" windowWidth="15495" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,38 +30,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速旋转的圈数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decRoll</t>
+    <t>旋转圈数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转盘分成几份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否顺时针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,11 +133,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -288,19 +332,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="lstExample" displayName="lstExample" ref="A4:D8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="3"/>
-    <tableColumn id="2" name="acc" dataDxfId="2"/>
-    <tableColumn id="3" name="maxSpeed" dataDxfId="1"/>
-    <tableColumn id="5" name="decRoll" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="lstExample" displayName="lstExample" ref="A4:E8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" name="spinNum" dataDxfId="3"/>
+    <tableColumn id="3" name="spinTime" dataDxfId="2"/>
+    <tableColumn id="5" name="itemNum" dataDxfId="1"/>
+    <tableColumn id="4" name="cw" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -375,23 +420,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -427,23 +455,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -620,26 +631,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -652,75 +664,93 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
